--- a/html/resources/1condition/trialsB3.xlsx
+++ b/html/resources/1condition/trialsB3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Desktop/Sinai_Projects/Code/fish-task-6B20T/1condition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Desktop/Sinai_Projects/Code/fish-task-6B20T/html/resources/1condition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F4B4D0-FC77-C941-97F9-3DAAEB4B7414}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAB4A3B-04BB-4249-A6D0-17AA879EFC43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,13 +68,13 @@
     <t>stimuli/bead_g.PNG</t>
   </si>
   <si>
-    <t>stimuli/blank.JPG</t>
-  </si>
-  <si>
     <t>stimuli/bead_b.PNG</t>
   </si>
   <si>
     <t>stimuli/bead_y.PNG</t>
+  </si>
+  <si>
+    <t>stimuli/blank.jpg</t>
   </si>
 </sst>
 </file>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -444,16 +444,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -477,13 +477,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -496,7 +496,7 @@
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -513,10 +513,10 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -529,7 +529,7 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -537,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -549,7 +549,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -573,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -595,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -603,13 +603,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -635,13 +635,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -667,13 +667,13 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -699,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -719,7 +719,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -731,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -751,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -783,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -815,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -835,7 +835,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -893,13 +893,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -925,13 +925,13 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -951,19 +951,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -983,16 +983,16 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>0</v>
